--- a/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Row</t>
   </si>
@@ -164,6 +164,324 @@
   </si>
   <si>
     <t>even_MAG-GUT1959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3231.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3233.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3477.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3561.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT41.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43425.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43462.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43573.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43577.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43620.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43751.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43943.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44539.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44544.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44617.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46437.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48498.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48566.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48585.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48612.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48754.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48804.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48834.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48968.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48971.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49004.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49015.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49070.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49083.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49101.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49170.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49236.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49289.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49302.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49315.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49359.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49403.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49456.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49469.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49529.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49535.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49539.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49541.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49609.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6222.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6229.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6233.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6238.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6241.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6274.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6291.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69501.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7062.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7090.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7102.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7118.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7213.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7216.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7222.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7253.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7278.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91192.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91196.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91262.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91264.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91267.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91272.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91297.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91320.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91330.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91385.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91468.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91486.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91490.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91491.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91492.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91496.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91520.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91536.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91546.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91568.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91712.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91717.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91779.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91815.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91818.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91821.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91823.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91860.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91886.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91911.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91912.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91923.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91926.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91932.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91941.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91954.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT92006.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT92066.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT92111.fa</t>
   </si>
   <si>
     <t>1-s__Enterococcus faecalis</t>
@@ -217,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C156"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -230,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -775,6 +1093,1172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>Row</t>
   </si>
@@ -508,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -518,14 +518,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,25 +542,25 @@
   <dimension ref="A1:C156"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="24.42578125" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
   <si>
     <t>Row</t>
   </si>
@@ -508,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -520,16 +520,52 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,22 +584,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-2435.1326815603588</v>
       </c>
       <c r="C2">
         <v>1</v>
